--- a/OAB팀프로젝트/12. 체크리스트/OBATENT 체크리스트3.xlsx
+++ b/OAB팀프로젝트/12. 체크리스트/OBATENT 체크리스트3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\workspaceOG\OABProject\OAB팀프로젝트\12. 체크리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB35A060-B70F-4F58-BBCE-EC718D9A7FBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F909098D-A6A4-417B-912D-4BFB0DA37D08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김은수" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="277">
   <si>
     <t>NO.</t>
   </si>
@@ -19931,6 +19931,21 @@
       </rPr>
       <t xml:space="preserve"> 페이지의 정보와 동일 여부</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -21064,7 +21079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -21327,27 +21342,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -21362,19 +21374,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21384,15 +21408,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21405,6 +21420,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21431,29 +21455,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -21464,8 +21473,29 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -21478,10 +21508,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21498,19 +21525,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -21865,8 +21883,8 @@
   </sheetPr>
   <dimension ref="A1:N1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21878,43 +21896,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="106"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
@@ -21923,15 +21941,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
@@ -21940,15 +21958,15 @@
       <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
       <c r="K5" s="27"/>
@@ -22014,15 +22032,15 @@
       <c r="N8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="107"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="113"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
@@ -22050,15 +22068,15 @@
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="108"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="114"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="28"/>
@@ -22181,15 +22199,15 @@
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -22236,15 +22254,15 @@
       <c r="N20" s="27"/>
     </row>
     <row r="21" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -22348,15 +22366,15 @@
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
@@ -22449,15 +22467,15 @@
       <c r="G33" s="70"/>
     </row>
     <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="69">
@@ -22512,15 +22530,15 @@
       <c r="G38" s="70"/>
     </row>
     <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="100"/>
     </row>
     <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="69">
@@ -22536,15 +22554,15 @@
       <c r="G40" s="70"/>
     </row>
     <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="100"/>
     </row>
     <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="69">
@@ -22599,15 +22617,15 @@
       <c r="G45" s="70"/>
     </row>
     <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="103"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="100"/>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
@@ -22649,15 +22667,15 @@
       <c r="G49" s="70"/>
     </row>
     <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="103"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="100"/>
     </row>
     <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="69">
@@ -31299,11 +31317,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -31312,12 +31331,11 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31356,32 +31374,32 @@
       <c r="G1" s="120"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="125"/>
+      <c r="G2" s="128"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="121"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
       <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
@@ -31390,26 +31408,26 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="128"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="125" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77">
@@ -31464,15 +31482,15 @@
       <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
     </row>
     <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
@@ -31553,15 +31571,15 @@
       <c r="G16" s="84"/>
     </row>
     <row r="17" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="124"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
@@ -31612,15 +31630,15 @@
       <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="117"/>
       <c r="I21" s="36"/>
       <c r="J21" s="37"/>
       <c r="K21" s="38"/>
@@ -31712,15 +31730,15 @@
       <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="133" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="117"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="135"/>
       <c r="I27" s="36"/>
       <c r="J27" s="37"/>
       <c r="K27" s="38"/>
@@ -31778,15 +31796,15 @@
       <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="114"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="117"/>
       <c r="I31" s="28"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
@@ -31895,15 +31913,15 @@
       <c r="G38" s="84"/>
     </row>
     <row r="39" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="111"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="124"/>
     </row>
     <row r="40" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
@@ -31934,15 +31952,15 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="114"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="117"/>
     </row>
     <row r="43" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
@@ -39729,6 +39747,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A39:G39"/>
@@ -39744,7 +39763,6 @@
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A42:G42"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39759,8 +39777,8 @@
   </sheetPr>
   <dimension ref="A1:L1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" activeCellId="1" sqref="D15:D20 I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39772,43 +39790,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
@@ -39817,26 +39835,26 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="137"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
@@ -39845,7 +39863,9 @@
       <c r="B6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -39858,22 +39878,24 @@
       <c r="B7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="134"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="141"/>
     </row>
     <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -39941,15 +39963,15 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="134"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="141"/>
     </row>
     <row r="15" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
@@ -39959,7 +39981,9 @@
         <v>61</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="14"/>
@@ -39975,7 +39999,9 @@
         <v>152</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="14"/>
@@ -39991,7 +40017,9 @@
         <v>153</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="14"/>
@@ -40007,7 +40035,9 @@
         <v>154</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="14"/>
@@ -40023,7 +40053,9 @@
         <v>62</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="14"/>
@@ -40039,7 +40071,9 @@
         <v>63</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="14"/>
@@ -40048,15 +40082,15 @@
       <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="134"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="141"/>
       <c r="I21" s="28"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -40139,15 +40173,15 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="141"/>
     </row>
     <row r="28" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
@@ -40203,15 +40237,15 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="135" t="s">
+      <c r="A32" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="134"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="141"/>
     </row>
     <row r="33" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
@@ -40266,15 +40300,15 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="135" t="s">
+      <c r="A37" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="134"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="141"/>
     </row>
     <row r="38" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
@@ -40384,15 +40418,15 @@
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="135" t="s">
+      <c r="A46" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="134"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="141"/>
     </row>
     <row r="47" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
@@ -49059,7 +49093,7 @@
   <dimension ref="A1:K1031"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49071,43 +49105,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="144"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="149"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
@@ -49116,33 +49150,35 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="49" t="s">
+        <v>273</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -49153,7 +49189,9 @@
       <c r="B7" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="49" t="s">
+        <v>273</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -49197,7 +49235,9 @@
       <c r="B11" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="49" t="s">
+        <v>273</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -49226,15 +49266,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="107"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -49270,15 +49310,15 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="107"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="113"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
@@ -49329,15 +49369,15 @@
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="141"/>
       <c r="I23" s="28"/>
       <c r="J23" s="27"/>
     </row>
@@ -49355,15 +49395,15 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
       <c r="I25" s="28"/>
       <c r="J25" s="27"/>
     </row>
@@ -49381,15 +49421,15 @@
       <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="141"/>
       <c r="I27" s="28"/>
       <c r="J27" s="27"/>
     </row>
@@ -49485,15 +49525,15 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="135" t="s">
+      <c r="A35" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="134"/>
+      <c r="B35" s="140"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="141"/>
       <c r="J35" s="28"/>
       <c r="K35" s="27"/>
     </row>
@@ -49719,15 +49759,15 @@
       <c r="K52" s="27"/>
     </row>
     <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="135" t="s">
+      <c r="A53" s="139" t="s">
         <v>264</v>
       </c>
-      <c r="B53" s="133"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="134"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="141"/>
       <c r="J53" s="28"/>
       <c r="K53" s="27"/>
     </row>
@@ -49756,26 +49796,26 @@
       <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="135" t="s">
+      <c r="A56" s="139" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="134"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="141"/>
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="155"/>
-      <c r="B57" s="156" t="s">
+      <c r="A57" s="92"/>
+      <c r="B57" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="157"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="159"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="96"/>
     </row>
     <row r="58" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
@@ -58545,6 +58585,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A1:G1"/>
@@ -58559,9 +58602,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58577,7 +58617,7 @@
   <dimension ref="A1:Z1019"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -58588,43 +58628,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="154"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="158"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
@@ -58633,26 +58673,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
@@ -58661,7 +58701,9 @@
       <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="49" t="s">
+        <v>273</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -58674,7 +58716,9 @@
       <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="49" t="s">
+        <v>274</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -58687,7 +58731,9 @@
       <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="49" t="s">
+        <v>274</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -58700,7 +58746,9 @@
       <c r="B9" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="97" t="s">
+        <v>274</v>
+      </c>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
@@ -58719,7 +58767,9 @@
       <c r="B10" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="97" t="s">
+        <v>274</v>
+      </c>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
@@ -58732,15 +58782,15 @@
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="151"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="155"/>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
       <c r="K11" s="27"/>
@@ -58861,15 +58911,15 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="151"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="155"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -59063,15 +59113,15 @@
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="151"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="155"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="39"/>
@@ -59272,15 +59322,15 @@
       <c r="M37" s="27"/>
     </row>
     <row r="38" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="149" t="s">
+      <c r="A38" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="150"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="151"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="155"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="39"/>
@@ -59488,7 +59538,7 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="147">
+      <c r="A46" s="159">
         <v>8</v>
       </c>
       <c r="B46" s="62" t="s">
@@ -59501,7 +59551,7 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="148"/>
+      <c r="A47" s="160"/>
       <c r="B47" s="62" t="s">
         <v>119</v>
       </c>
@@ -59551,15 +59601,15 @@
       <c r="G50" s="60"/>
     </row>
     <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="149" t="s">
+      <c r="A51" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="150"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="151"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="155"/>
     </row>
     <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="32">
@@ -59614,15 +59664,15 @@
       <c r="G55" s="60"/>
     </row>
     <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="149" t="s">
+      <c r="A56" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="150"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="151"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="155"/>
     </row>
     <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="32">
@@ -59716,15 +59766,15 @@
       <c r="G63" s="60"/>
     </row>
     <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="149" t="s">
+      <c r="A64" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="150"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="150"/>
-      <c r="E64" s="150"/>
-      <c r="F64" s="150"/>
-      <c r="G64" s="151"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="155"/>
     </row>
     <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="32">
@@ -59818,15 +59868,15 @@
       <c r="G71" s="60"/>
     </row>
     <row r="72" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="149" t="s">
+      <c r="A72" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="150"/>
-      <c r="C72" s="150"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="150"/>
-      <c r="G72" s="151"/>
+      <c r="B72" s="154"/>
+      <c r="C72" s="154"/>
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="155"/>
     </row>
     <row r="73" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="32">
@@ -68385,6 +68435,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A72:G72"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A30:G30"/>
@@ -68398,11 +68453,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A72:G72"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
